--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12780"/>
+    <workbookView windowWidth="28695" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -43,15 +43,20 @@
     <t>资源路径</t>
   </si>
   <si>
-    <t>Prefab/Unit/AirShip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Prefab/Unit/AirShip_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,21 +65,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -82,9 +411,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -96,10 +667,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -390,19 +1008,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -410,7 +1028,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -429,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -437,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -445,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -454,8 +1072,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -25,6 +25,9 @@
     <t>required</t>
   </si>
   <si>
+    <t>repeated</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -37,13 +40,37 @@
     <t>prefab</t>
   </si>
   <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>资源路径</t>
   </si>
   <si>
+    <t>技能列表</t>
+  </si>
+  <si>
+    <t>AI的id</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -51,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +92,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -73,8 +115,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,54 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,14 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,9 +169,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,23 +214,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +245,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,157 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +436,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,50 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,141 +556,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,21 +1044,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,37 +1069,87 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -64,7 +64,7 @@
     <t>Prefab/Unit/AirShip_1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1,3</t>
   </si>
   <si>
     <t>敌方</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +94,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,29 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -245,6 +245,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,36 +390,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +436,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,15 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,21 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -544,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -64,7 +64,7 @@
     <t>Prefab/Unit/AirShip_1</t>
   </si>
   <si>
-    <t>1,3</t>
+    <t>1</t>
   </si>
   <si>
     <t>敌方</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="9570"/>
+    <workbookView windowWidth="15810" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -34,12 +34,27 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>prefab</t>
   </si>
   <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>move_speed</t>
+  </si>
+  <si>
     <t>skills</t>
   </si>
   <si>
@@ -49,16 +64,31 @@
     <t>ID</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
     <t>资源路径</t>
   </si>
   <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>技能列表</t>
   </si>
   <si>
     <t>AI的id</t>
   </si>
   <si>
-    <t>玩家</t>
+    <t>玩家1</t>
+  </si>
+  <si>
+    <t>player1</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1</t>
@@ -67,10 +97,169 @@
     <t>1</t>
   </si>
   <si>
+    <t>玩家2</t>
+  </si>
+  <si>
+    <t>player2</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_2</t>
+  </si>
+  <si>
+    <t>玩家3</t>
+  </si>
+  <si>
+    <t>player3</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_3</t>
+  </si>
+  <si>
+    <t>玩家4</t>
+  </si>
+  <si>
+    <t>player4</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_4</t>
+  </si>
+  <si>
     <t>敌方</t>
   </si>
   <si>
+    <t>enemy1001</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1001</t>
+  </si>
+  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>enemy1002</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1002</t>
+  </si>
+  <si>
+    <t>enemy1003</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1003</t>
+  </si>
+  <si>
+    <t>enemy1004</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1004</t>
+  </si>
+  <si>
+    <t>enemy1006</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1006</t>
+  </si>
+  <si>
+    <t>enemy1007</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1007</t>
+  </si>
+  <si>
+    <t>enemy1008</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1008</t>
+  </si>
+  <si>
+    <t>enemy1009</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1009</t>
+  </si>
+  <si>
+    <t>enemy1010</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1010</t>
+  </si>
+  <si>
+    <t>enemy1011</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1011</t>
+  </si>
+  <si>
+    <t>enemy1012</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1012</t>
+  </si>
+  <si>
+    <t>enemy1013</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1013</t>
+  </si>
+  <si>
+    <t>enemy1014</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1014</t>
+  </si>
+  <si>
+    <t>enemy1015</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1015</t>
+  </si>
+  <si>
+    <t>enemy1016</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1016</t>
+  </si>
+  <si>
+    <t>enemy1017</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1017</t>
+  </si>
+  <si>
+    <t>enemy1018</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1018</t>
+  </si>
+  <si>
+    <t>enemy1021</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1021</t>
+  </si>
+  <si>
+    <t>enemy1022</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1022</t>
+  </si>
+  <si>
+    <t>enemy1023</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1023</t>
+  </si>
+  <si>
+    <t>enemy1024</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1024</t>
+  </si>
+  <si>
+    <t>enemy1025</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1025</t>
   </si>
 </sst>
 </file>
@@ -78,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -215,13 +404,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,6 +417,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,6 +434,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,175 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,142 +733,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,22 +1233,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,86 +1260,854 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1012</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1013</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1014</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1016</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1017</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1018</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1021</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1023</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="9555"/>
+    <workbookView windowWidth="18825" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -61,6 +61,9 @@
     <t>ai</t>
   </si>
   <si>
+    <t>die_effect</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>AI的id</t>
   </si>
   <si>
+    <t>死亡动画</t>
+  </si>
+  <si>
     <t>玩家1</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>eff_blast0</t>
   </si>
   <si>
     <t>玩家2</t>
@@ -268,9 +277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -404,6 +413,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -417,13 +433,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -434,6 +443,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,12 +473,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,37 +527,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,19 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +605,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,55 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,130 +754,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1247,10 +1256,12 @@
     <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,8 +1289,11 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:9">
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,8 +1318,11 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1330,45 +1347,51 @@
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -1380,24 +1403,27 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -1409,24 +1435,27 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -1438,24 +1467,27 @@
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -1467,24 +1499,27 @@
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -1496,24 +1531,27 @@
         <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -1525,24 +1563,27 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -1554,24 +1595,27 @@
         <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -1583,24 +1627,27 @@
         <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -1612,24 +1659,27 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -1641,24 +1691,27 @@
         <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -1670,24 +1723,27 @@
         <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -1699,24 +1755,27 @@
         <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -1728,24 +1787,27 @@
         <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -1757,24 +1819,27 @@
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -1786,24 +1851,27 @@
         <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -1815,24 +1883,27 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -1844,24 +1915,27 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1">
         <v>1000000</v>
@@ -1873,24 +1947,27 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B23" s="1">
         <v>1016</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1">
         <v>100</v>
@@ -1902,24 +1979,27 @@
         <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>1017</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -1931,24 +2011,27 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
@@ -1960,24 +2043,27 @@
         <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>1021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
@@ -1989,24 +2075,27 @@
         <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B27" s="1">
         <v>1022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -2018,24 +2107,27 @@
         <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>1023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -2047,24 +2139,27 @@
         <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>1024</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -2076,24 +2171,27 @@
         <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>1025</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -2105,10 +2203,13 @@
         <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18825" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -94,194 +94,189 @@
     <t>玩家1</t>
   </si>
   <si>
+    <t>Prefab/Unit/AirShip_1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>eff_blast0</t>
+  </si>
+  <si>
+    <t>玩家2</t>
+  </si>
+  <si>
+    <t>player2</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_2</t>
+  </si>
+  <si>
+    <t>玩家3</t>
+  </si>
+  <si>
+    <t>player3</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_3</t>
+  </si>
+  <si>
+    <t>玩家4</t>
+  </si>
+  <si>
+    <t>player4</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_4</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>enemy1001</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>enemy1002</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1002</t>
+  </si>
+  <si>
+    <t>enemy1003</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1003</t>
+  </si>
+  <si>
+    <t>enemy1004</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1004</t>
+  </si>
+  <si>
+    <t>enemy1006</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1006</t>
+  </si>
+  <si>
+    <t>enemy1007</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1007</t>
+  </si>
+  <si>
+    <t>enemy1008</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1008</t>
+  </si>
+  <si>
+    <t>enemy1009</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1009</t>
+  </si>
+  <si>
+    <t>enemy1010</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1010</t>
+  </si>
+  <si>
+    <t>enemy1011</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1011</t>
+  </si>
+  <si>
+    <t>enemy1012</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1012</t>
+  </si>
+  <si>
+    <t>enemy1013</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1013</t>
+  </si>
+  <si>
+    <t>enemy1014</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1014</t>
+  </si>
+  <si>
+    <t>enemy1015</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1015</t>
+  </si>
+  <si>
+    <t>enemy1016</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1016</t>
+  </si>
+  <si>
+    <t>enemy1017</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1017</t>
+  </si>
+  <si>
+    <t>enemy1018</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1018</t>
+  </si>
+  <si>
+    <t>enemy1021</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1021</t>
+  </si>
+  <si>
+    <t>enemy1022</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1022</t>
+  </si>
+  <si>
+    <t>enemy1023</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1023</t>
+  </si>
+  <si>
+    <t>enemy1024</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1024</t>
+  </si>
+  <si>
+    <t>enemy1025</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1025</t>
+  </si>
+  <si>
     <t>player1</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>eff_blast0</t>
-  </si>
-  <si>
-    <t>玩家2</t>
-  </si>
-  <si>
-    <t>player2</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_2</t>
-  </si>
-  <si>
-    <t>玩家3</t>
-  </si>
-  <si>
-    <t>player3</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_3</t>
-  </si>
-  <si>
-    <t>玩家4</t>
-  </si>
-  <si>
-    <t>player4</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_4</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>enemy1001</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1001</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>enemy1002</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1002</t>
-  </si>
-  <si>
-    <t>enemy1003</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1003</t>
-  </si>
-  <si>
-    <t>enemy1004</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1004</t>
-  </si>
-  <si>
-    <t>enemy1006</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1006</t>
-  </si>
-  <si>
-    <t>enemy1007</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1007</t>
-  </si>
-  <si>
-    <t>enemy1008</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1008</t>
-  </si>
-  <si>
-    <t>enemy1009</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1009</t>
-  </si>
-  <si>
-    <t>enemy1010</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1010</t>
-  </si>
-  <si>
-    <t>enemy1011</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1011</t>
-  </si>
-  <si>
-    <t>enemy1012</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1012</t>
-  </si>
-  <si>
-    <t>enemy1013</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1013</t>
-  </si>
-  <si>
-    <t>enemy1014</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1014</t>
-  </si>
-  <si>
-    <t>enemy1015</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1015</t>
-  </si>
-  <si>
-    <t>enemy1016</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1016</t>
-  </si>
-  <si>
-    <t>enemy1017</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1017</t>
-  </si>
-  <si>
-    <t>enemy1018</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1018</t>
-  </si>
-  <si>
-    <t>enemy1021</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1021</t>
-  </si>
-  <si>
-    <t>enemy1022</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1022</t>
-  </si>
-  <si>
-    <t>enemy1023</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1023</t>
-  </si>
-  <si>
-    <t>enemy1024</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1024</t>
-  </si>
-  <si>
-    <t>enemy1025</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,345 +285,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -636,251 +307,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -895,57 +324,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1236,19 +618,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.25" style="1" customWidth="1"/>
@@ -1261,7 +643,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1351,7 +733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,7 +762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1388,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -1403,27 +785,27 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -1435,27 +817,27 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -1467,27 +849,27 @@
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -1499,28 +881,28 @@
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="1">
         <v>100</v>
       </c>
@@ -1531,28 +913,28 @@
         <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
@@ -1563,28 +945,28 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
@@ -1595,28 +977,28 @@
         <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
@@ -1627,28 +1009,28 @@
         <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="1">
         <v>100</v>
       </c>
@@ -1659,28 +1041,28 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" s="1">
         <v>100</v>
       </c>
@@ -1691,28 +1073,28 @@
         <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="1">
         <v>100</v>
       </c>
@@ -1723,28 +1105,28 @@
         <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="1">
         <v>100</v>
       </c>
@@ -1755,28 +1137,28 @@
         <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="1">
         <v>100</v>
       </c>
@@ -1787,28 +1169,28 @@
         <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" s="1">
         <v>100</v>
       </c>
@@ -1819,28 +1201,28 @@
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="1">
         <v>100</v>
       </c>
@@ -1851,28 +1233,28 @@
         <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
@@ -1883,28 +1265,28 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" s="1">
         <v>100</v>
       </c>
@@ -1915,27 +1297,27 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E22" s="1">
         <v>1000000</v>
@@ -1947,28 +1329,28 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>1016</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E23" s="1">
         <v>100</v>
       </c>
@@ -1979,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
         <v>1017</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" s="1">
         <v>100</v>
       </c>
@@ -2011,28 +1393,28 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E25" s="1">
         <v>100</v>
       </c>
@@ -2043,28 +1425,28 @@
         <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>1021</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E26" s="1">
         <v>100</v>
       </c>
@@ -2075,28 +1457,28 @@
         <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>1022</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E27" s="1">
         <v>100</v>
       </c>
@@ -2107,28 +1489,28 @@
         <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
         <v>1023</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E28" s="1">
         <v>100</v>
       </c>
@@ -2139,28 +1521,28 @@
         <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
         <v>1024</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E29" s="1">
         <v>100</v>
       </c>
@@ -2171,28 +1553,28 @@
         <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>1025</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E30" s="1">
         <v>100</v>
       </c>
@@ -2203,18 +1585,18 @@
         <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -268,7 +268,7 @@
     <t>Prefab/Unit/AirShip_1025</t>
   </si>
   <si>
-    <t>player1</t>
+    <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +627,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
+    <sheet name="Item配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -58,9 +59,6 @@
     <t>skills</t>
   </si>
   <si>
-    <t>ai</t>
-  </si>
-  <si>
     <t>die_effect</t>
   </si>
   <si>
@@ -85,15 +83,6 @@
     <t>技能列表</t>
   </si>
   <si>
-    <t>AI的id</t>
-  </si>
-  <si>
-    <t>死亡动画</t>
-  </si>
-  <si>
-    <t>玩家1</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1</t>
   </si>
   <si>
@@ -103,172 +92,218 @@
     <t>eff_blast0</t>
   </si>
   <si>
-    <t>玩家2</t>
-  </si>
-  <si>
-    <t>player2</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_2</t>
   </si>
   <si>
-    <t>玩家3</t>
-  </si>
-  <si>
-    <t>player3</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_3</t>
   </si>
   <si>
-    <t>玩家4</t>
-  </si>
-  <si>
-    <t>player4</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_4</t>
   </si>
   <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>enemy1001</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1001</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>enemy1002</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1002</t>
   </si>
   <si>
-    <t>enemy1003</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1003</t>
   </si>
   <si>
-    <t>enemy1004</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1004</t>
   </si>
   <si>
-    <t>enemy1006</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1006</t>
   </si>
   <si>
-    <t>enemy1007</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1007</t>
   </si>
   <si>
-    <t>enemy1008</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1008</t>
   </si>
   <si>
-    <t>enemy1009</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1009</t>
   </si>
   <si>
-    <t>enemy1010</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1010</t>
   </si>
   <si>
-    <t>enemy1011</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1011</t>
   </si>
   <si>
-    <t>enemy1012</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1012</t>
   </si>
   <si>
-    <t>enemy1013</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1013</t>
   </si>
   <si>
-    <t>enemy1014</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1014</t>
   </si>
   <si>
-    <t>enemy1015</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1015</t>
   </si>
   <si>
-    <t>enemy1016</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1016</t>
   </si>
   <si>
-    <t>enemy1017</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1017</t>
   </si>
   <si>
-    <t>enemy1018</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1018</t>
   </si>
   <si>
-    <t>enemy1021</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1021</t>
   </si>
   <si>
-    <t>enemy1022</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1022</t>
   </si>
   <si>
-    <t>enemy1023</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1023</t>
   </si>
   <si>
-    <t>enemy1024</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1024</t>
   </si>
   <si>
-    <t>enemy1025</t>
-  </si>
-  <si>
     <t>Prefab/Unit/AirShip_1025</t>
   </si>
   <si>
-    <t>中文</t>
+    <t>飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人1002</t>
+  </si>
+  <si>
+    <t>敌人1003</t>
+  </si>
+  <si>
+    <t>敌人1004</t>
+  </si>
+  <si>
+    <t>敌人1007</t>
+  </si>
+  <si>
+    <t>敌人1008</t>
+  </si>
+  <si>
+    <t>敌人1009</t>
+  </si>
+  <si>
+    <t>敌人1010</t>
+  </si>
+  <si>
+    <t>敌人1011</t>
+  </si>
+  <si>
+    <t>敌人1012</t>
+  </si>
+  <si>
+    <t>敌人1013</t>
+  </si>
+  <si>
+    <t>敌人1014</t>
+  </si>
+  <si>
+    <t>敌人1015</t>
+  </si>
+  <si>
+    <t>敌人1016</t>
+  </si>
+  <si>
+    <t>敌人1017</t>
+  </si>
+  <si>
+    <t>敌人1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人1018</t>
+  </si>
+  <si>
+    <t>敌人1021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人1022</t>
+  </si>
+  <si>
+    <t>敌人1023</t>
+  </si>
+  <si>
+    <t>敌人1024</t>
+  </si>
+  <si>
+    <t>敌人1025</t>
+  </si>
+  <si>
+    <t>死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞半径（碰撞不使用配置collider）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config/AI/RepeatAttack.bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,6 +370,353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1562100"/>
+          <a:ext cx="904874" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685799"/>
+          <a:ext cx="876299" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1190624"/>
+          <a:ext cx="876300" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1695449"/>
+          <a:ext cx="876300" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2200276"/>
+          <a:ext cx="876300" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="3209924"/>
+          <a:ext cx="876300" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3714751"/>
+          <a:ext cx="876300" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9267826"/>
+          <a:ext cx="876300" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9772651"/>
+          <a:ext cx="876300" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -638,9 +1020,10 @@
     <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
+    <col min="9" max="9" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -698,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
@@ -727,53 +1110,50 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -785,27 +1165,24 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -817,27 +1194,24 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -849,27 +1223,24 @@
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -881,27 +1252,24 @@
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -913,27 +1281,24 @@
         <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -945,27 +1310,24 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -977,27 +1339,24 @@
         <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -1009,27 +1368,24 @@
         <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -1041,27 +1397,24 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -1073,27 +1426,24 @@
         <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -1105,27 +1455,24 @@
         <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -1137,27 +1484,24 @@
         <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -1169,27 +1513,24 @@
         <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -1201,27 +1542,24 @@
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -1233,27 +1571,24 @@
         <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -1265,27 +1600,24 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -1297,30 +1629,27 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
         <v>10</v>
@@ -1329,19 +1658,16 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>1016</v>
       </c>
@@ -1349,7 +1675,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1">
         <v>100</v>
@@ -1361,27 +1687,24 @@
         <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>1017</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -1393,27 +1716,24 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
@@ -1425,27 +1745,24 @@
         <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>1021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
@@ -1457,27 +1774,24 @@
         <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>1022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -1489,27 +1803,24 @@
         <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>1023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -1521,27 +1832,24 @@
         <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
         <v>1024</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -1553,27 +1861,24 @@
         <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
         <v>1025</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -1585,18 +1890,161 @@
         <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="18210" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -59,6 +59,9 @@
     <t>skills</t>
   </si>
   <si>
+    <t>ai_path</t>
+  </si>
+  <si>
     <t>die_effect</t>
   </si>
   <si>
@@ -83,235 +86,206 @@
     <t>技能列表</t>
   </si>
   <si>
+    <t>AI的路径</t>
+  </si>
+  <si>
+    <t>死亡特效</t>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>Config/AI/RepeatAttack.bytes</t>
+  </si>
+  <si>
     <t>eff_blast0</t>
   </si>
   <si>
+    <t>蓝光</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_2</t>
   </si>
   <si>
+    <t>惊雷</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_3</t>
   </si>
   <si>
+    <t>魅影</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_4</t>
   </si>
   <si>
+    <t>敌人1001</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1001</t>
   </si>
   <si>
-    <t>2</t>
+    <t>敌人1002</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1002</t>
   </si>
   <si>
+    <t>敌人1003</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1003</t>
   </si>
   <si>
+    <t>敌人1004</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1004</t>
   </si>
   <si>
+    <t>敌人1006</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1006</t>
   </si>
   <si>
+    <t>敌人1007</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1007</t>
   </si>
   <si>
+    <t>敌人1008</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1008</t>
   </si>
   <si>
+    <t>敌人1009</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1009</t>
   </si>
   <si>
+    <t>敌人1010</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1010</t>
   </si>
   <si>
+    <t>敌人1011</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1011</t>
   </si>
   <si>
+    <t>敌人1012</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1012</t>
   </si>
   <si>
+    <t>敌人1013</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1013</t>
   </si>
   <si>
+    <t>敌人1014</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1014</t>
   </si>
   <si>
+    <t>敌人1015</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1015</t>
   </si>
   <si>
+    <t>敌人1016</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1016</t>
   </si>
   <si>
+    <t>敌人1017</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1017</t>
   </si>
   <si>
+    <t>敌人1018</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1018</t>
   </si>
   <si>
+    <t>敌人1021</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1021</t>
   </si>
   <si>
+    <t>敌人1022</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1022</t>
   </si>
   <si>
+    <t>敌人1023</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1023</t>
   </si>
   <si>
+    <t>敌人1024</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1024</t>
   </si>
   <si>
+    <t>敌人1025</t>
+  </si>
+  <si>
     <t>Prefab/Unit/AirShip_1025</t>
   </si>
   <si>
-    <t>飓风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人1002</t>
-  </si>
-  <si>
-    <t>敌人1003</t>
-  </si>
-  <si>
-    <t>敌人1004</t>
-  </si>
-  <si>
-    <t>敌人1007</t>
-  </si>
-  <si>
-    <t>敌人1008</t>
-  </si>
-  <si>
-    <t>敌人1009</t>
-  </si>
-  <si>
-    <t>敌人1010</t>
-  </si>
-  <si>
-    <t>敌人1011</t>
-  </si>
-  <si>
-    <t>敌人1012</t>
-  </si>
-  <si>
-    <t>敌人1013</t>
-  </si>
-  <si>
-    <t>敌人1014</t>
-  </si>
-  <si>
-    <t>敌人1015</t>
-  </si>
-  <si>
-    <t>敌人1016</t>
-  </si>
-  <si>
-    <t>敌人1017</t>
-  </si>
-  <si>
-    <t>敌人1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人1018</t>
-  </si>
-  <si>
-    <t>敌人1021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人1022</t>
-  </si>
-  <si>
-    <t>敌人1023</t>
-  </si>
-  <si>
-    <t>敌人1024</t>
-  </si>
-  <si>
-    <t>敌人1025</t>
-  </si>
-  <si>
-    <t>死亡特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>碰撞半径（碰撞不使用配置collider）</t>
+  </si>
+  <si>
+    <t>附加血量</t>
   </si>
   <si>
     <t>血包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prefab/Item/Item_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞半径（碰撞不使用配置collider）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI的路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Config/AI/RepeatAttack.bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,21 +294,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -342,9 +640,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -359,10 +899,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -373,7 +960,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -395,15 +982,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1562100"/>
-          <a:ext cx="904874" cy="171450"/>
+          <a:off x="0" y="2715260"/>
+          <a:ext cx="904240" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,15 +1020,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="685799"/>
-          <a:ext cx="876299" cy="504825"/>
+          <a:off x="0" y="685165"/>
+          <a:ext cx="875665" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,15 +1058,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1190624"/>
-          <a:ext cx="876300" cy="504825"/>
+          <a:off x="0" y="1189990"/>
+          <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -509,15 +1096,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="1695449"/>
-          <a:ext cx="876300" cy="504825"/>
+          <a:off x="0" y="1697355"/>
+          <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,15 +1134,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="2200276"/>
-          <a:ext cx="876300" cy="504824"/>
+          <a:off x="0" y="2207895"/>
+          <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,15 +1172,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="0" y="3209924"/>
-          <a:ext cx="876300" cy="504825"/>
+          <a:off x="0" y="3219450"/>
+          <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,15 +1210,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3714751"/>
-          <a:ext cx="876300" cy="504824"/>
+          <a:off x="0" y="3729990"/>
+          <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,15 +1248,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9267826"/>
-          <a:ext cx="876300" cy="504824"/>
+          <a:off x="0" y="9311005"/>
+          <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -699,19 +1286,733 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9772651"/>
-          <a:ext cx="876300" cy="504824"/>
+          <a:off x="0" y="9818370"/>
+          <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>872490</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="4237355"/>
+          <a:ext cx="862965" cy="528320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>841375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>494665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="4744720"/>
+          <a:ext cx="831850" cy="494665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9525" y="5252085"/>
+          <a:ext cx="871220" cy="518795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18415</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="5759450"/>
+          <a:ext cx="885190" cy="519430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="6266815"/>
+          <a:ext cx="873760" cy="520065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>866140</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>487045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="6774180"/>
+          <a:ext cx="856615" cy="487045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>873760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7281545"/>
+          <a:ext cx="864235" cy="509270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>478790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7788910"/>
+          <a:ext cx="875665" cy="478790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>485140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="8296275"/>
+          <a:ext cx="885825" cy="485140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="8803640"/>
+          <a:ext cx="894715" cy="523240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="10325735"/>
+          <a:ext cx="876300" cy="530225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>875665</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="10833100"/>
+          <a:ext cx="866140" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>506730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="11340465"/>
+          <a:ext cx="877570" cy="506730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="11847830"/>
+          <a:ext cx="895350" cy="529590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="12355195"/>
+          <a:ext cx="883285" cy="509905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>496570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="12862560"/>
+          <a:ext cx="838200" cy="496570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>856615</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="13369925"/>
+          <a:ext cx="847090" cy="530860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1000,19 +2301,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.25" style="1" customWidth="1"/>
@@ -1020,13 +2321,12 @@
     <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +2358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1081,13 +2381,13 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,50 +2410,50 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="39.95" customHeight="1" spans="2:10">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -1165,24 +2465,24 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="39.95" customHeight="1" spans="2:10">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -1194,24 +2494,24 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="39.95" customHeight="1" spans="2:10">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -1223,24 +2523,24 @@
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="39.95" customHeight="1" spans="2:10">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -1252,24 +2552,24 @@
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="39.95" customHeight="1" spans="2:10">
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -1281,24 +2581,24 @@
         <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" ht="39.95" customHeight="1" spans="2:10">
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -1310,24 +2610,24 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" ht="39.95" customHeight="1" spans="2:10">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -1339,24 +2639,24 @@
         <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" ht="39.95" customHeight="1" spans="2:10">
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -1368,24 +2668,24 @@
         <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" ht="39.95" customHeight="1" spans="2:10">
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -1397,24 +2697,24 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" ht="39.95" customHeight="1" spans="2:10">
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -1426,24 +2726,24 @@
         <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" ht="39.95" customHeight="1" spans="2:10">
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -1455,24 +2755,24 @@
         <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" ht="39.95" customHeight="1" spans="2:10">
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -1484,24 +2784,24 @@
         <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" ht="39.95" customHeight="1" spans="2:10">
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -1513,24 +2813,24 @@
         <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" ht="39.95" customHeight="1" spans="2:10">
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -1542,24 +2842,24 @@
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" ht="39.95" customHeight="1" spans="2:10">
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -1571,24 +2871,24 @@
         <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" ht="39.95" customHeight="1" spans="2:10">
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -1600,24 +2900,24 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" ht="39.95" customHeight="1" spans="2:10">
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -1629,24 +2929,24 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" ht="39.95" customHeight="1" spans="2:10">
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1">
         <v>100</v>
@@ -1658,24 +2958,24 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" ht="39.95" customHeight="1" spans="2:10">
       <c r="B23" s="1">
         <v>1016</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1">
         <v>100</v>
@@ -1687,24 +2987,24 @@
         <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" ht="39.95" customHeight="1" spans="2:10">
       <c r="B24" s="1">
         <v>1017</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -1716,24 +3016,24 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" ht="39.95" customHeight="1" spans="2:10">
       <c r="B25" s="1">
         <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
@@ -1745,24 +3045,24 @@
         <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" ht="39.95" customHeight="1" spans="2:10">
       <c r="B26" s="1">
         <v>1021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
@@ -1774,24 +3074,24 @@
         <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" ht="39.95" customHeight="1" spans="2:10">
       <c r="B27" s="1">
         <v>1022</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -1803,16 +3103,16 @@
         <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" ht="39.95" customHeight="1" spans="2:10">
       <c r="B28" s="1">
         <v>1023</v>
       </c>
@@ -1820,7 +3120,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -1832,24 +3132,24 @@
         <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" ht="39.95" customHeight="1" spans="2:10">
       <c r="B29" s="1">
         <v>1024</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -1861,24 +3161,24 @@
         <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" ht="39.95" customHeight="1" spans="2:10">
       <c r="B30" s="1">
         <v>1025</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -1890,47 +3190,48 @@
         <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1954,7 +3255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1971,13 +3272,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1988,50 +3289,50 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>
@@ -2044,7 +3345,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18210" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -56,9 +56,6 @@
     <t>move_speed</t>
   </si>
   <si>
-    <t>skills</t>
-  </si>
-  <si>
     <t>ai_path</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>技能列表</t>
-  </si>
-  <si>
     <t>AI的路径</t>
   </si>
   <si>
@@ -273,19 +267,53 @@
   </si>
   <si>
     <t>Prefab/Item/Item_1</t>
+  </si>
+  <si>
+    <t>active_skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive_skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>die_audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,345 +322,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -640,251 +344,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,57 +361,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -960,7 +375,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -982,7 +397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1020,7 +435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1058,7 +473,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1096,7 +511,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1134,7 +549,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1172,7 +587,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1210,7 +625,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1248,7 +663,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1286,7 +701,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1324,7 +739,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1366,7 +781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1408,7 +823,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1450,7 +865,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1492,7 +907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1534,7 +949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1576,7 +991,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1618,7 +1033,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1660,7 +1075,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1702,7 +1117,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1744,7 +1159,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1786,7 +1201,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1828,7 +1243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1870,7 +1285,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1912,7 +1327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1954,7 +1369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1996,7 +1411,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,32 +1716,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2351,14 +1768,20 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:10">
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2380,14 +1803,20 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2407,53 +1836,65 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>9001</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="39.95" customHeight="1" spans="2:10">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -2465,24 +1906,27 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
+        <v>9002</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" ht="39.95" customHeight="1" spans="2:10">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -2494,24 +1938,27 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>9003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -2523,24 +1970,27 @@
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>9004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -2552,24 +2002,27 @@
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -2581,24 +2034,27 @@
         <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -2610,24 +2066,27 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -2639,24 +2098,27 @@
         <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -2668,24 +2130,27 @@
         <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -2697,24 +2162,27 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -2726,24 +2194,27 @@
         <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -2755,24 +2226,27 @@
         <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -2784,24 +2258,27 @@
         <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -2813,24 +2290,27 @@
         <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -2842,24 +2322,27 @@
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -2871,24 +2354,27 @@
         <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -2900,24 +2386,27 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -2929,27 +2418,30 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F22" s="1">
         <v>10</v>
@@ -2957,28 +2449,31 @@
       <c r="G22" s="1">
         <v>20</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>1016</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F23" s="1">
         <v>10</v>
@@ -2986,25 +2481,28 @@
       <c r="G23" s="1">
         <v>20</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>1017</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -3016,24 +2514,27 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
@@ -3045,24 +2546,27 @@
         <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>1021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
@@ -3074,24 +2578,27 @@
         <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>1022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -3103,24 +2610,27 @@
         <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>1023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -3132,24 +2642,27 @@
         <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
         <v>1024</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -3161,24 +2674,27 @@
         <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" ht="39.95" customHeight="1" spans="2:10">
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
         <v>1025</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -3190,33 +2706,35 @@
         <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>29</v>
+      <c r="L30" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
@@ -3229,9 +2747,9 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3255,7 +2773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +2796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3289,50 +2807,50 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>
@@ -3345,7 +2863,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9555"/>
+    <workbookView windowWidth="28080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -56,12 +56,21 @@
     <t>move_speed</t>
   </si>
   <si>
+    <t>active_skills</t>
+  </si>
+  <si>
+    <t>passive_skills</t>
+  </si>
+  <si>
     <t>ai_path</t>
   </si>
   <si>
     <t>die_effect</t>
   </si>
   <si>
+    <t>die_audio</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -80,18 +89,30 @@
     <t>移动速度</t>
   </si>
   <si>
+    <t>主动技能列表</t>
+  </si>
+  <si>
+    <t>被动技能列表</t>
+  </si>
+  <si>
     <t>AI的路径</t>
   </si>
   <si>
     <t>死亡特效</t>
   </si>
   <si>
+    <t>死亡音效</t>
+  </si>
+  <si>
     <t>飓风</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -267,53 +288,19 @@
   </si>
   <si>
     <t>Prefab/Item/Item_1</t>
-  </si>
-  <si>
-    <t>active_skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passive_skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动技能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>die_audio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,21 +309,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -344,27 +661,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -375,7 +987,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -397,7 +1009,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -435,7 +1047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -473,7 +1085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -511,7 +1123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -549,7 +1161,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -587,7 +1199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -625,7 +1237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -663,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -701,7 +1313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -739,7 +1351,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -781,7 +1393,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -823,7 +1435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -865,7 +1477,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -907,7 +1519,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -949,7 +1561,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -991,7 +1603,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1033,7 +1645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1075,7 +1687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1117,7 +1729,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1159,7 +1771,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1201,7 +1813,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1243,7 +1855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1285,7 +1897,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1327,7 +1939,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1369,7 +1981,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1411,7 +2023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1716,34 +2328,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1765,10 +2377,10 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1778,10 +2390,10 @@
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1800,10 +2412,10 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1813,10 +2425,10 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1835,66 +2447,66 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>85</v>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="39.95" customHeight="1" spans="2:12">
       <c r="B5" s="1">
         <v>9001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -1905,124 +2517,136 @@
       <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="1">
+    <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="2:12">
+      <c r="B6" s="2">
         <v>9002</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="1">
+    <row r="7" s="2" customFormat="1" ht="39.95" customHeight="1" spans="2:12">
+      <c r="B7" s="2">
         <v>9003</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="39.95" customHeight="1" spans="2:12">
+      <c r="B8" s="2">
+        <v>9004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="2">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="1">
-        <v>9004</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="39.95" customHeight="1" spans="2:12">
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -2033,28 +2657,31 @@
       <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="39.95" customHeight="1" spans="2:12">
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -2065,28 +2692,31 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="39.95" customHeight="1" spans="2:12">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -2097,28 +2727,31 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="39.95" customHeight="1" spans="2:12">
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -2129,28 +2762,31 @@
       <c r="G12" s="1">
         <v>20</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="39.95" customHeight="1" spans="2:12">
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -2161,28 +2797,31 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="39.95" customHeight="1" spans="2:12">
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -2193,28 +2832,31 @@
       <c r="G14" s="1">
         <v>20</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="39.95" customHeight="1" spans="2:12">
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -2225,28 +2867,31 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="39.95" customHeight="1" spans="2:12">
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -2257,28 +2902,31 @@
       <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="39.95" customHeight="1" spans="2:12">
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -2289,28 +2937,31 @@
       <c r="G17" s="1">
         <v>20</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
+      <c r="H17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="39.95" customHeight="1" spans="2:12">
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -2321,28 +2972,31 @@
       <c r="G18" s="1">
         <v>20</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
+      <c r="H18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="39.95" customHeight="1" spans="2:12">
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -2353,28 +3007,31 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>25</v>
+      <c r="H19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="39.95" customHeight="1" spans="2:12">
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -2385,28 +3042,31 @@
       <c r="G20" s="1">
         <v>20</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="39.95" customHeight="1" spans="2:12">
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -2417,28 +3077,31 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>25</v>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="39.95" customHeight="1" spans="2:12">
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1">
         <v>10000</v>
@@ -2449,28 +3112,28 @@
       <c r="G22" s="1">
         <v>20</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>89</v>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="39.95" customHeight="1" spans="2:12">
       <c r="B23" s="1">
         <v>1016</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1">
         <v>10000</v>
@@ -2481,28 +3144,28 @@
       <c r="G23" s="1">
         <v>20</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>88</v>
+      <c r="I23" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="39.95" customHeight="1" spans="2:12">
       <c r="B24" s="1">
         <v>1017</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -2513,28 +3176,31 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>25</v>
+      <c r="H24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="39.95" customHeight="1" spans="2:12">
       <c r="B25" s="1">
         <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
@@ -2545,28 +3211,31 @@
       <c r="G25" s="1">
         <v>20</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>25</v>
+      <c r="H25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="39.95" customHeight="1" spans="2:12">
       <c r="B26" s="1">
         <v>1021</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
@@ -2577,28 +3246,31 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>25</v>
+      <c r="H26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="39.95" customHeight="1" spans="2:12">
       <c r="B27" s="1">
         <v>1022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -2609,28 +3281,31 @@
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>25</v>
+      <c r="H27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="39.95" customHeight="1" spans="2:12">
       <c r="B28" s="1">
         <v>1023</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -2641,28 +3316,31 @@
       <c r="G28" s="1">
         <v>20</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>25</v>
+      <c r="H28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="39.95" customHeight="1" spans="2:12">
       <c r="B29" s="1">
         <v>1024</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -2673,28 +3351,31 @@
       <c r="G29" s="1">
         <v>20</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>25</v>
+      <c r="H29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="39.95" customHeight="1" spans="2:12">
       <c r="B30" s="1">
         <v>1025</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -2705,36 +3386,40 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>25</v>
+      <c r="H30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L30" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
@@ -2747,9 +3432,9 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2773,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2796,7 +3481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2807,50 +3492,50 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>
@@ -2863,7 +3548,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -65,6 +65,9 @@
     <t>ai_path</t>
   </si>
   <si>
+    <t>ai_attack_time</t>
+  </si>
+  <si>
     <t>die_effect</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>AI的路径</t>
   </si>
   <si>
+    <t>AI攻击时间（敌方攻击多久退场,Template_Join_Attack_Leave有效）</t>
+  </si>
+  <si>
     <t>死亡特效</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t>Config/AI/RepeatAttack.bytes</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>eff_blast0</t>
   </si>
   <si>
@@ -146,12 +155,24 @@
     <t>Prefab/Unit/AirShip_1001</t>
   </si>
   <si>
+    <t>Config/AI/JoinSceneMove.bytes</t>
+  </si>
+  <si>
     <t>敌人1002</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1002</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Config/AI/Template_Join_Attack_Leave.bytes</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>敌人1003</t>
   </si>
   <si>
@@ -224,10 +245,31 @@
     <t>Prefab/Unit/AirShip_1015</t>
   </si>
   <si>
+    <t>敌人10151</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_10151</t>
+  </si>
+  <si>
+    <t>敌人10152</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_10152</t>
+  </si>
+  <si>
+    <t>敌人10153</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_10153</t>
+  </si>
+  <si>
     <t>敌人1016</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1016</t>
+  </si>
+  <si>
+    <t>敌人10161</t>
   </si>
   <si>
     <t>敌人1017</t>
@@ -295,8 +337,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -309,48 +351,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +380,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -384,10 +410,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,9 +425,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,16 +449,33 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,22 +490,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,7 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +534,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,6 +559,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,19 +600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,19 +624,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,67 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,6 +701,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,33 +778,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,32 +801,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,148 +821,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,7 +1064,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2715260"/>
+          <a:off x="0" y="3077210"/>
           <a:ext cx="904240" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1029,15 +1077,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1270</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>513715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>876299</xdr:colOff>
+      <xdr:colOff>877569</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>504824</xdr:rowOff>
+      <xdr:rowOff>485140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1054,7 +1102,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="685165"/>
+          <a:off x="1270" y="1028065"/>
           <a:ext cx="875665" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1092,7 +1140,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1189990"/>
+          <a:off x="0" y="1551940"/>
           <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1130,7 +1178,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1697355"/>
+          <a:off x="0" y="2059305"/>
           <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1168,7 +1216,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2207895"/>
+          <a:off x="0" y="2569845"/>
           <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1206,7 +1254,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="0" y="3219450"/>
+          <a:off x="0" y="3581400"/>
           <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1244,7 +1292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3729990"/>
+          <a:off x="0" y="4091940"/>
           <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1282,7 +1330,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9311005"/>
+          <a:off x="0" y="9672955"/>
           <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1296,13 +1344,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1320,7 +1368,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9818370"/>
+          <a:off x="0" y="11702415"/>
           <a:ext cx="876300" cy="507365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1358,7 +1406,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="4237355"/>
+          <a:off x="9525" y="4599305"/>
           <a:ext cx="862965" cy="528320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1400,7 +1448,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="4744720"/>
+          <a:off x="9525" y="5106670"/>
           <a:ext cx="831850" cy="494665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1442,7 +1490,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9525" y="5252085"/>
+          <a:off x="9525" y="5614035"/>
           <a:ext cx="871220" cy="518795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1484,7 +1532,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="5759450"/>
+          <a:off x="9525" y="6121400"/>
           <a:ext cx="885190" cy="519430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1526,7 +1574,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="6266815"/>
+          <a:off x="9525" y="6628765"/>
           <a:ext cx="873760" cy="520065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1568,7 +1616,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="6774180"/>
+          <a:off x="9525" y="7136130"/>
           <a:ext cx="856615" cy="487045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1610,7 +1658,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="7281545"/>
+          <a:off x="9525" y="7643495"/>
           <a:ext cx="864235" cy="509270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1652,7 +1700,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="7788910"/>
+          <a:off x="9525" y="8150860"/>
           <a:ext cx="875665" cy="478790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1694,7 +1742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="8296275"/>
+          <a:off x="9525" y="8658225"/>
           <a:ext cx="885825" cy="485140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1736,176 +1784,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="8803640"/>
+          <a:off x="9525" y="9165590"/>
           <a:ext cx="894715" cy="523240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="10325735"/>
-          <a:ext cx="876300" cy="530225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>875665</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="10833100"/>
-          <a:ext cx="866140" cy="525780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>506730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="11340465"/>
-          <a:ext cx="877570" cy="506730"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="11847830"/>
-          <a:ext cx="895350" cy="529590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,27 +1807,27 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPr id="21" name="图片 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="12355195"/>
-          <a:ext cx="883285" cy="509905"/>
+          <a:off x="9525" y="12717145"/>
+          <a:ext cx="876300" cy="530225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,27 +1849,27 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>496570</xdr:rowOff>
+      <xdr:colOff>875665</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPr id="22" name="图片 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="12862560"/>
-          <a:ext cx="838200" cy="496570"/>
+          <a:off x="9525" y="13224510"/>
+          <a:ext cx="866140" cy="525780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,9 +1890,177 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>506730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="13731875"/>
+          <a:ext cx="877570" cy="506730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="14239240"/>
+          <a:ext cx="895350" cy="529590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="14746605"/>
+          <a:ext cx="883285" cy="509905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>496570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="15253970"/>
+          <a:ext cx="838200" cy="496570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>856615</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2030,8 +2078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="13369925"/>
-          <a:ext cx="847090" cy="530860"/>
+          <a:off x="9525" y="15761335"/>
+          <a:ext cx="847090" cy="23495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,10 +2382,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2347,15 +2395,16 @@
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="47.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2377,10 +2426,10 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2392,8 +2441,11 @@
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2412,23 +2464,26 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2447,66 +2502,72 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" ht="42" customHeight="1" spans="2:13">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" ht="39.95" customHeight="1" spans="2:12">
+    <row r="5" ht="39.95" customHeight="1" spans="2:13">
       <c r="B5" s="1">
         <v>9001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -2517,136 +2578,148 @@
       <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B6" s="3">
+        <v>9002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1">
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="2:12">
-      <c r="B6" s="2">
-        <v>9002</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B7" s="3">
+        <v>9003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2">
+      <c r="L7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B8" s="3">
+        <v>9004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G8" s="3">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="2">
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="39.95" customHeight="1" spans="2:12">
-      <c r="B7" s="2">
-        <v>9003</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="39.95" customHeight="1" spans="2:12">
-      <c r="B8" s="2">
-        <v>9004</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>30</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="39.95" customHeight="1" spans="2:12">
+    <row r="9" ht="39.95" customHeight="1" spans="2:13">
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -2657,31 +2730,34 @@
       <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="1">
+        <v>46</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="39.95" customHeight="1" spans="2:12">
+    <row r="10" ht="39.95" customHeight="1" spans="2:13">
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -2692,31 +2768,34 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="1">
+        <v>50</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="39.95" customHeight="1" spans="2:12">
+    <row r="11" ht="39.95" customHeight="1" spans="2:13">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -2727,31 +2806,34 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>32</v>
+      <c r="H11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="1">
+        <v>50</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="39.95" customHeight="1" spans="2:12">
+    <row r="12" ht="39.95" customHeight="1" spans="2:13">
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -2762,31 +2844,34 @@
       <c r="G12" s="1">
         <v>20</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>32</v>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="1">
+        <v>35</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="39.95" customHeight="1" spans="2:12">
+    <row r="13" ht="39.95" customHeight="1" spans="2:13">
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -2797,31 +2882,34 @@
       <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>32</v>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="1">
+        <v>35</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="39.95" customHeight="1" spans="2:12">
+    <row r="14" ht="39.95" customHeight="1" spans="2:13">
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -2832,31 +2920,34 @@
       <c r="G14" s="1">
         <v>20</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>32</v>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="1">
+        <v>35</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="39.95" customHeight="1" spans="2:12">
+    <row r="15" ht="39.95" customHeight="1" spans="2:13">
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -2867,31 +2958,34 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>32</v>
+      <c r="H15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="1">
+        <v>35</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="39.95" customHeight="1" spans="2:12">
+    <row r="16" ht="39.95" customHeight="1" spans="2:13">
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -2902,31 +2996,34 @@
       <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>32</v>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="1">
+        <v>35</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="39.95" customHeight="1" spans="2:12">
+    <row r="17" ht="39.95" customHeight="1" spans="2:13">
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -2937,31 +3034,34 @@
       <c r="G17" s="1">
         <v>20</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>32</v>
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="1">
+        <v>35</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="39.95" customHeight="1" spans="2:12">
+    <row r="18" ht="39.95" customHeight="1" spans="2:13">
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -2972,31 +3072,34 @@
       <c r="G18" s="1">
         <v>20</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="1">
+        <v>35</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="39.95" customHeight="1" spans="2:12">
+    <row r="19" ht="39.95" customHeight="1" spans="2:13">
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -3007,31 +3110,34 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
+      <c r="H19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="1">
+        <v>35</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="39.95" customHeight="1" spans="2:12">
+    <row r="20" ht="39.95" customHeight="1" spans="2:13">
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -3042,31 +3148,34 @@
       <c r="G20" s="1">
         <v>20</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>32</v>
+      <c r="H20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="1">
+        <v>35</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="39.95" customHeight="1" spans="2:12">
+    <row r="21" ht="39.95" customHeight="1" spans="2:13">
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -3077,31 +3186,34 @@
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>32</v>
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="1">
+        <v>35</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="39.95" customHeight="1" spans="2:12">
+    <row r="22" ht="39.95" customHeight="1" spans="2:13">
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1">
         <v>10000</v>
@@ -3112,28 +3224,31 @@
       <c r="G22" s="1">
         <v>20</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>32</v>
+      <c r="I22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="1">
+        <v>46</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="39.95" customHeight="1" spans="2:12">
+    <row r="23" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
       <c r="B23" s="1">
-        <v>1016</v>
+        <v>10151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1">
         <v>10000</v>
@@ -3144,31 +3259,35 @@
       <c r="G23" s="1">
         <v>20</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>32</v>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="1">
+        <v>46</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="39.95" customHeight="1" spans="2:12">
+    <row r="24" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
       <c r="B24" s="1">
-        <v>1017</v>
+        <v>10152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
@@ -3176,34 +3295,35 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>32</v>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="1">
+        <v>46</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="39.95" customHeight="1" spans="2:12">
+    <row r="25" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
       <c r="B25" s="1">
-        <v>1018</v>
+        <v>10153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
@@ -3211,34 +3331,35 @@
       <c r="G25" s="1">
         <v>20</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>32</v>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="1">
+        <v>46</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="39.95" customHeight="1" spans="2:12">
+    <row r="26" ht="39.95" customHeight="1" spans="2:13">
       <c r="B26" s="1">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
@@ -3246,34 +3367,34 @@
       <c r="G26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>32</v>
+      <c r="I26" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="1">
+        <v>46</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="39.95" customHeight="1" spans="2:12">
+    <row r="27" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
       <c r="B27" s="1">
-        <v>1022</v>
+        <v>10161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -3281,31 +3402,32 @@
       <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>32</v>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="1">
+        <v>46</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="39.95" customHeight="1" spans="2:12">
+    <row r="28" ht="39.95" customHeight="1" spans="2:13">
       <c r="B28" s="1">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -3316,31 +3438,34 @@
       <c r="G28" s="1">
         <v>20</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>32</v>
+      <c r="H28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="1">
+        <v>35</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="39.95" customHeight="1" spans="2:12">
+    <row r="29" ht="39.95" customHeight="1" spans="2:13">
       <c r="B29" s="1">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -3351,31 +3476,34 @@
       <c r="G29" s="1">
         <v>20</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>32</v>
+      <c r="H29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="1">
+        <v>35</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="39.95" customHeight="1" spans="2:12">
+    <row r="30" ht="39.95" customHeight="1" spans="2:13">
       <c r="B30" s="1">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -3386,19 +3514,174 @@
       <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>32</v>
+      <c r="H30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B31" s="1">
+        <v>1022</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="I31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="1">
+      <c r="J31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B32" s="1">
+        <v>1023</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="1">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B33" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <v>20</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B34" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3434,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3492,7 +3775,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -3506,25 +3789,25 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -3532,10 +3815,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -116,27 +116,27 @@
     <t>Prefab/Unit/AirShip_1</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Config/AI/RepeatAttack.bytes</t>
+  </si>
+  <si>
+    <t>eff_blast0</t>
+  </si>
+  <si>
+    <t>蓝光</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_2</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Config/AI/RepeatAttack.bytes</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>eff_blast0</t>
-  </si>
-  <si>
-    <t>蓝光</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_2</t>
-  </si>
-  <si>
     <t>惊雷</t>
   </si>
   <si>
@@ -164,81 +164,120 @@
     <t>Prefab/Unit/AirShip_1002</t>
   </si>
   <si>
+    <t>Config/AI/Template_Join_Attack_Leave.bytes</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>敌人1003</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1003</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
-    <t>Config/AI/Template_Join_Attack_Leave.bytes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>敌人1003</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1003</t>
-  </si>
-  <si>
     <t>敌人1004</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1004</t>
   </si>
   <si>
+    <t>1041,1042</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
     <t>敌人1006</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1006</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Config/AI/Template_Join_NoTarget_Attack_Leave.bytes</t>
+  </si>
+  <si>
     <t>敌人1007</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1007</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>敌人1008</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1008</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>敌人1009</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1009</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>敌人1010</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1010</t>
   </si>
   <si>
+    <t>1071,1072</t>
+  </si>
+  <si>
     <t>敌人1011</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1011</t>
   </si>
   <si>
+    <t>117,1061,1062,1163,1164</t>
+  </si>
+  <si>
     <t>敌人1012</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1012</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>敌人1013</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1013</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Config/AI/Template_Join_NoTarget_Attack.bytes</t>
+  </si>
+  <si>
     <t>敌人1014</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1014</t>
   </si>
   <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>敌人1015</t>
   </si>
   <si>
@@ -284,6 +323,9 @@
     <t>Prefab/Unit/AirShip_1018</t>
   </si>
   <si>
+    <t>1091,1092,1093,1094</t>
+  </si>
+  <si>
     <t>敌人1021</t>
   </si>
   <si>
@@ -312,6 +354,18 @@
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1025</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/Boss_2001</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Config/AI/Boss_2001.bytes</t>
   </si>
   <si>
     <t>ResItem</t>
@@ -337,8 +391,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -348,28 +402,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,9 +420,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,7 +467,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,21 +475,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,29 +483,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -472,16 +498,44 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,31 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +612,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,19 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,73 +726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,21 +755,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -738,25 +777,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,17 +823,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,16 +875,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,115 +893,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,8 +1136,8 @@
       <xdr:rowOff>513715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>877569</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>485140</xdr:rowOff>
     </xdr:to>
@@ -1103,7 +1157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1270" y="1028065"/>
-          <a:ext cx="875665" cy="504825"/>
+          <a:ext cx="875030" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2061,7 +2115,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>856615</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>23495</xdr:rowOff>
+      <xdr:rowOff>490220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2079,7 +2133,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="15761335"/>
-          <a:ext cx="847090" cy="23495"/>
+          <a:ext cx="847090" cy="490220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>857885</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>493395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="16268700"/>
+          <a:ext cx="848360" cy="493395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2382,10 +2478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2395,7 +2491,7 @@
     <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26" style="4" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="47.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="30" style="4" customWidth="1"/>
@@ -2570,10 +2666,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>30</v>
@@ -2587,11 +2683,8 @@
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -2602,22 +2695,22 @@
         <v>9002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>34</v>
@@ -2625,11 +2718,9 @@
       <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M6" s="3">
         <v>2</v>
@@ -2646,16 +2737,16 @@
         <v>41</v>
       </c>
       <c r="E7" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>34</v>
@@ -2663,11 +2754,9 @@
       <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="3">
         <v>2</v>
@@ -2684,16 +2773,16 @@
         <v>43</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>30</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>34</v>
@@ -2701,11 +2790,9 @@
       <c r="J8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M8" s="3">
         <v>2</v>
@@ -2722,28 +2809,22 @@
         <v>45</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="I9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M9" s="1">
         <v>2</v>
@@ -2760,28 +2841,28 @@
         <v>48</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1">
         <v>2</v>
@@ -2792,34 +2873,34 @@
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
@@ -2836,28 +2917,28 @@
         <v>55</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M12" s="1">
         <v>2</v>
@@ -2868,13 +2949,13 @@
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
         <v>10</v>
@@ -2883,19 +2964,19 @@
         <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M13" s="1">
         <v>2</v>
@@ -2906,13 +2987,13 @@
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
@@ -2921,19 +3002,19 @@
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M14" s="1">
         <v>2</v>
@@ -2944,13 +3025,13 @@
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
         <v>10</v>
@@ -2959,19 +3040,19 @@
         <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M15" s="1">
         <v>2</v>
@@ -2982,13 +3063,13 @@
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
@@ -2997,19 +3078,19 @@
         <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -3020,13 +3101,13 @@
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1">
         <v>10</v>
@@ -3035,19 +3116,19 @@
         <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M17" s="1">
         <v>2</v>
@@ -3058,10 +3139,10 @@
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -3073,19 +3154,19 @@
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M18" s="1">
         <v>2</v>
@@ -3096,34 +3177,34 @@
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1">
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M19" s="1">
         <v>2</v>
@@ -3134,34 +3215,32 @@
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M20" s="1">
         <v>2</v>
@@ -3172,10 +3251,10 @@
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -3184,22 +3263,20 @@
         <v>10</v>
       </c>
       <c r="G21" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M21" s="1">
         <v>2</v>
@@ -3210,10 +3287,10 @@
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1">
         <v>10000</v>
@@ -3230,11 +3307,8 @@
       <c r="J22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M22" s="1">
         <v>2</v>
@@ -3245,10 +3319,10 @@
         <v>10151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1">
         <v>10000</v>
@@ -3266,11 +3340,9 @@
       <c r="J23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M23" s="1">
         <v>2</v>
@@ -3281,10 +3353,10 @@
         <v>10152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1">
         <v>10000</v>
@@ -3302,11 +3374,9 @@
       <c r="J24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M24" s="1">
         <v>2</v>
@@ -3317,10 +3387,10 @@
         <v>10153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1">
         <v>10000</v>
@@ -3338,11 +3408,9 @@
       <c r="J25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M25" s="1">
         <v>2</v>
@@ -3353,10 +3421,10 @@
         <v>1016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1">
         <v>10000</v>
@@ -3373,11 +3441,8 @@
       <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M26" s="1">
         <v>2</v>
@@ -3388,10 +3453,10 @@
         <v>10161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1">
         <v>10000</v>
@@ -3409,11 +3474,9 @@
       <c r="J27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="4"/>
+      <c r="L27" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
@@ -3424,34 +3487,29 @@
         <v>1017</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
       <c r="G28" s="1">
-        <v>20</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="M28" s="1">
         <v>2</v>
@@ -3462,10 +3520,10 @@
         <v>1018</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -3477,211 +3535,245 @@
         <v>20</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B30" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
+        <v>20</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B31" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3">
+        <v>20</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B32" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3">
+        <v>20</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B33" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3">
+        <v>20</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B34" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3">
+        <v>20</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K34" s="6"/>
+      <c r="L34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="M34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="39.95" customHeight="1" spans="2:13">
-      <c r="B30" s="1">
-        <v>1021</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="1">
+    <row r="35" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="B35" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="1">
         <v>100</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F35" s="1">
         <v>10</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G35" s="1">
         <v>20</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" ht="39.95" customHeight="1" spans="2:13">
-      <c r="B31" s="1">
-        <v>1022</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="1">
-        <v>100</v>
-      </c>
-      <c r="F31" s="1">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1">
-        <v>20</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" ht="39.95" customHeight="1" spans="2:13">
-      <c r="B32" s="1">
-        <v>1023</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="1">
-        <v>100</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
-        <v>20</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" ht="39.95" customHeight="1" spans="2:13">
-      <c r="B33" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="1">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1">
-        <v>20</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" ht="39.95" customHeight="1" spans="2:13">
-      <c r="B34" s="1">
-        <v>1025</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="1">
-        <v>100</v>
-      </c>
-      <c r="F34" s="1">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1">
-        <v>20</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="M35" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3717,7 +3809,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3775,7 +3867,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -3798,7 +3890,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -3807,7 +3899,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -3815,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1">
         <v>1.5</v>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -74,6 +74,15 @@
     <t>die_audio</t>
   </si>
   <si>
+    <t>die_drop_ids</t>
+  </si>
+  <si>
+    <t>die_drop_weights</t>
+  </si>
+  <si>
+    <t>die_drop_rate</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -110,6 +119,15 @@
     <t>死亡音效</t>
   </si>
   <si>
+    <t>死亡掉落id列表</t>
+  </si>
+  <si>
+    <t>死亡掉落权重列表</t>
+  </si>
+  <si>
+    <t>死亡掉落概率(百分比)</t>
+  </si>
+  <si>
     <t>飓风</t>
   </si>
   <si>
@@ -158,6 +176,12 @@
     <t>Config/AI/JoinSceneMove.bytes</t>
   </si>
   <si>
+    <t>1,101</t>
+  </si>
+  <si>
+    <t>50,50</t>
+  </si>
+  <si>
     <t>敌人1002</t>
   </si>
   <si>
@@ -203,6 +227,9 @@
     <t>Config/AI/Template_Join_NoTarget_Attack_Leave.bytes</t>
   </si>
   <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>敌人1007</t>
   </si>
   <si>
@@ -221,6 +248,9 @@
     <t>117</t>
   </si>
   <si>
+    <t>1008</t>
+  </si>
+  <si>
     <t>敌人1009</t>
   </si>
   <si>
@@ -248,6 +278,9 @@
     <t>117,1061,1062,1163,1164</t>
   </si>
   <si>
+    <t>1011</t>
+  </si>
+  <si>
     <t>敌人1012</t>
   </si>
   <si>
@@ -257,6 +290,9 @@
     <t>112</t>
   </si>
   <si>
+    <t>1012</t>
+  </si>
+  <si>
     <t>敌人1013</t>
   </si>
   <si>
@@ -317,6 +353,9 @@
     <t>Prefab/Unit/AirShip_1017</t>
   </si>
   <si>
+    <t>1017</t>
+  </si>
+  <si>
     <t>敌人1018</t>
   </si>
   <si>
@@ -326,6 +365,9 @@
     <t>1091,1092,1093,1094</t>
   </si>
   <si>
+    <t>1018</t>
+  </si>
+  <si>
     <t>敌人1021</t>
   </si>
   <si>
@@ -374,16 +416,73 @@
     <t>radius</t>
   </si>
   <si>
+    <t>airship</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
     <t>碰撞半径（碰撞不使用配置collider）</t>
   </si>
   <si>
     <t>附加血量</t>
   </si>
   <si>
+    <t>替换飞船</t>
+  </si>
+  <si>
+    <t>替换技能1</t>
+  </si>
+  <si>
+    <t>替换技能2</t>
+  </si>
+  <si>
+    <t>1-100特殊物品</t>
+  </si>
+  <si>
     <t>血包</t>
   </si>
   <si>
     <t>Prefab/Item/Item_1</t>
+  </si>
+  <si>
+    <t>Config/AI/RandomPointMove.bytes</t>
+  </si>
+  <si>
+    <t>101-1000技能</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_101</t>
+  </si>
+  <si>
+    <t>1001以上，是飞船</t>
+  </si>
+  <si>
+    <t>飞船</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_1006</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_1008</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_1011</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_1012</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_1017</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_1018</t>
   </si>
 </sst>
 </file>
@@ -391,10 +490,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -412,53 +511,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -468,46 +520,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +546,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -543,7 +571,78 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,31 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,54 +682,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +753,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,13 +795,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,45 +854,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,26 +868,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,6 +895,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -863,145 +962,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2478,10 +2577,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2497,10 +2600,13 @@
     <col min="11" max="11" width="30" style="4" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="13.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2540,8 +2646,17 @@
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:13">
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2578,8 +2693,17 @@
       <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2616,43 +2740,61 @@
       <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="42" customHeight="1" spans="2:13">
+      <c r="N3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="42" customHeight="1" spans="2:16">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="39.95" customHeight="1" spans="2:13">
@@ -2660,10 +2802,10 @@
         <v>9001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -2675,30 +2817,30 @@
         <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+    <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B6" s="3">
         <v>9002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
@@ -2710,31 +2852,32 @@
         <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B7" s="3">
         <v>9003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
@@ -2746,31 +2889,32 @@
         <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B8" s="3">
         <v>9004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
@@ -2782,31 +2926,32 @@
         <v>30</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" ht="39.95" customHeight="1" spans="2:16">
       <c r="B9" s="1">
         <v>1001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -2818,27 +2963,36 @@
         <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="39.95" customHeight="1" spans="2:16">
       <c r="B10" s="1">
         <v>1002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -2850,33 +3004,42 @@
         <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="1">
         <v>50</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="39.95" customHeight="1" spans="2:13">
+    </row>
+    <row r="11" ht="39.95" customHeight="1" spans="2:16">
       <c r="B11" s="1">
         <v>1003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -2888,33 +3051,42 @@
         <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="O11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="1">
         <v>50</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="39.95" customHeight="1" spans="2:13">
+    </row>
+    <row r="12" ht="39.95" customHeight="1" spans="2:16">
       <c r="B12" s="1">
         <v>1004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -2926,33 +3098,42 @@
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="39.95" customHeight="1" spans="2:16">
       <c r="B13" s="1">
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -2964,33 +3145,42 @@
         <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="1">
         <v>50</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="39.95" customHeight="1" spans="2:13">
+      <c r="P13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="39.95" customHeight="1" spans="2:16">
       <c r="B14" s="1">
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -3002,33 +3192,42 @@
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1">
         <v>50</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" ht="39.95" customHeight="1" spans="2:13">
+    </row>
+    <row r="15" ht="39.95" customHeight="1" spans="2:16">
       <c r="B15" s="1">
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -3040,33 +3239,42 @@
         <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="1">
         <v>50</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="39.95" customHeight="1" spans="2:13">
+      <c r="P15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="39.95" customHeight="1" spans="2:16">
       <c r="B16" s="1">
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -3078,33 +3286,42 @@
         <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="1">
         <v>50</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="39.95" customHeight="1" spans="2:13">
+    </row>
+    <row r="17" ht="39.95" customHeight="1" spans="2:16">
       <c r="B17" s="1">
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -3116,36 +3333,45 @@
         <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="1">
         <v>50</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" ht="39.95" customHeight="1" spans="2:13">
+    </row>
+    <row r="18" ht="39.95" customHeight="1" spans="2:16">
       <c r="B18" s="1">
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
         <v>10</v>
@@ -3154,33 +3380,42 @@
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="1">
+        <v>50</v>
+      </c>
+      <c r="P18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="39.95" customHeight="1" spans="2:16">
       <c r="B19" s="1">
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -3192,33 +3427,42 @@
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="1">
         <v>50</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" ht="39.95" customHeight="1" spans="2:13">
+      <c r="P19" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="39.95" customHeight="1" spans="2:16">
       <c r="B20" s="1">
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
@@ -3230,34 +3474,42 @@
         <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="4"/>
+        <v>95</v>
+      </c>
       <c r="L20" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="39.95" customHeight="1" spans="2:16">
       <c r="B21" s="1">
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>10</v>
@@ -3266,34 +3518,42 @@
         <v>25</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="4"/>
+        <v>95</v>
+      </c>
       <c r="L21" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="39.95" customHeight="1" spans="2:16">
       <c r="B22" s="1">
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>10</v>
@@ -3302,30 +3562,39 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
       <c r="B23" s="1">
         <v>10151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
         <v>10</v>
@@ -3335,31 +3604,40 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
       <c r="B24" s="1">
         <v>10152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
@@ -3369,31 +3647,40 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
       <c r="B25" s="1">
         <v>10153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
@@ -3403,31 +3690,40 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="39.95" customHeight="1" spans="2:16">
       <c r="B26" s="1">
         <v>1016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
@@ -3436,30 +3732,39 @@
         <v>20</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
       <c r="B27" s="1">
         <v>10161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E27" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -3469,31 +3774,40 @@
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" ht="39.95" customHeight="1" spans="2:16">
       <c r="B28" s="1">
         <v>1017</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
@@ -3501,32 +3815,40 @@
       <c r="G28" s="1">
         <v>40</v>
       </c>
-      <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" s="1">
+        <v>50</v>
+      </c>
+      <c r="P28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" ht="39.95" customHeight="1" spans="2:16">
       <c r="B29" s="1">
         <v>1018</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
@@ -3535,33 +3857,42 @@
         <v>20</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="1">
         <v>50</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="P29" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B30" s="3">
         <v>1021</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E30" s="3">
         <v>100</v>
@@ -3573,33 +3904,34 @@
         <v>20</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M30" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B31" s="3">
         <v>1022</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E31" s="3">
         <v>100</v>
@@ -3611,33 +3943,34 @@
         <v>20</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M31" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B32" s="3">
         <v>1023</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -3649,33 +3982,34 @@
         <v>20</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B33" s="3">
         <v>1024</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -3687,33 +4021,34 @@
         <v>20</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M33" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B34" s="3">
         <v>1025</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E34" s="3">
         <v>100</v>
@@ -3725,31 +4060,32 @@
         <v>20</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M34" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
       <c r="B35" s="1">
         <v>2001</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E35" s="1">
         <v>100</v>
@@ -3761,21 +4097,22 @@
         <v>20</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M35" s="1">
         <v>2</v>
       </c>
+      <c r="N35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3788,28 +4125,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="26.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3832,8 +4171,17 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3855,8 +4203,17 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +4224,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -3878,48 +4235,239 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="I3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>137</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="1">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:9">
+      <c r="B8" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:9">
+      <c r="B9" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:9">
+      <c r="B10" s="1">
+        <v>1012</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:9">
+      <c r="B11" s="1">
+        <v>1017</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:9">
+      <c r="B12" s="1">
+        <v>1018</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="飞船配置" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -176,45 +176,51 @@
     <t>Config/AI/JoinSceneMove.bytes</t>
   </si>
   <si>
+    <t>1,101,102,103</t>
+  </si>
+  <si>
+    <t>50,50,100,100</t>
+  </si>
+  <si>
+    <t>敌人1002</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1002</t>
+  </si>
+  <si>
+    <t>Config/AI/Template_Join_Attack_Leave.bytes</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>敌人1003</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1003</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>敌人1004</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1004</t>
+  </si>
+  <si>
+    <t>1041,1042</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
     <t>1,101</t>
   </si>
   <si>
     <t>50,50</t>
   </si>
   <si>
-    <t>敌人1002</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1002</t>
-  </si>
-  <si>
-    <t>Config/AI/Template_Join_Attack_Leave.bytes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>敌人1003</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1003</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>敌人1004</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1004</t>
-  </si>
-  <si>
-    <t>1041,1042</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>敌人1006</t>
   </si>
   <si>
@@ -459,6 +465,18 @@
   </si>
   <si>
     <t>Prefab/Item/Item_101</t>
+  </si>
+  <si>
+    <t>喷火</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_102</t>
+  </si>
+  <si>
+    <t>激光</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_103</t>
   </si>
   <si>
     <t>1001以上，是飞船</t>
@@ -490,8 +508,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -512,7 +530,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,13 +567,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -540,28 +574,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -569,32 +588,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,30 +604,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -642,7 +613,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,7 +681,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,13 +759,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,13 +807,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,61 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,67 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,16 +876,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,44 +914,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +946,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -954,6 +963,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -962,145 +980,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2584,7 +2602,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3116,10 +3134,10 @@
         <v>2</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P12" s="1">
         <v>50</v>
@@ -3130,10 +3148,10 @@
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -3145,13 +3163,13 @@
         <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>58</v>
@@ -3163,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O13" s="1">
         <v>50</v>
@@ -3177,10 +3195,10 @@
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -3192,13 +3210,13 @@
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>58</v>
@@ -3210,10 +3228,10 @@
         <v>2</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P14" s="1">
         <v>50</v>
@@ -3224,10 +3242,10 @@
         <v>1008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -3239,7 +3257,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>40</v>
@@ -3257,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O15" s="1">
         <v>50</v>
@@ -3271,10 +3289,10 @@
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -3286,7 +3304,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>40</v>
@@ -3304,10 +3322,10 @@
         <v>2</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P16" s="1">
         <v>50</v>
@@ -3318,10 +3336,10 @@
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -3333,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>40</v>
@@ -3351,10 +3369,10 @@
         <v>2</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P17" s="1">
         <v>50</v>
@@ -3365,10 +3383,10 @@
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1">
         <v>60</v>
@@ -3380,13 +3398,13 @@
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>65</v>
@@ -3398,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O18" s="1">
         <v>50</v>
@@ -3412,10 +3430,10 @@
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -3427,7 +3445,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>40</v>
@@ -3445,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O19" s="1">
         <v>50</v>
@@ -3459,10 +3477,10 @@
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
@@ -3474,13 +3492,13 @@
         <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>42</v>
@@ -3489,10 +3507,10 @@
         <v>2</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P20" s="1">
         <v>50</v>
@@ -3503,13 +3521,13 @@
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1">
         <v>10</v>
@@ -3518,13 +3536,13 @@
         <v>25</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>42</v>
@@ -3533,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P21" s="1">
         <v>50</v>
@@ -3547,10 +3565,10 @@
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" s="1">
         <v>40</v>
@@ -3574,10 +3592,10 @@
         <v>2</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P22" s="1">
         <v>50</v>
@@ -3588,10 +3606,10 @@
         <v>10151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1">
         <v>40</v>
@@ -3617,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P23" s="1">
         <v>50</v>
@@ -3631,10 +3649,10 @@
         <v>10152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1">
         <v>40</v>
@@ -3660,10 +3678,10 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P24" s="1">
         <v>50</v>
@@ -3674,10 +3692,10 @@
         <v>10153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1">
         <v>40</v>
@@ -3703,10 +3721,10 @@
         <v>2</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P25" s="1">
         <v>50</v>
@@ -3717,10 +3735,10 @@
         <v>1016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>40</v>
@@ -3744,10 +3762,10 @@
         <v>2</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P26" s="1">
         <v>50</v>
@@ -3758,10 +3776,10 @@
         <v>10161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E27" s="1">
         <v>40</v>
@@ -3787,10 +3805,10 @@
         <v>2</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P27" s="1">
         <v>50</v>
@@ -3801,10 +3819,10 @@
         <v>1017</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1">
         <v>40</v>
@@ -3828,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O28" s="1">
         <v>50</v>
@@ -3842,10 +3860,10 @@
         <v>1018</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1">
         <v>30</v>
@@ -3857,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>40</v>
@@ -3875,7 +3893,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O29" s="1">
         <v>50</v>
@@ -3889,10 +3907,10 @@
         <v>1021</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="3">
         <v>100</v>
@@ -3910,7 +3928,7 @@
         <v>40</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>58</v>
@@ -3928,10 +3946,10 @@
         <v>1022</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E31" s="3">
         <v>100</v>
@@ -3949,7 +3967,7 @@
         <v>40</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>58</v>
@@ -3967,10 +3985,10 @@
         <v>1023</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -3988,7 +4006,7 @@
         <v>40</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>58</v>
@@ -4006,10 +4024,10 @@
         <v>1024</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -4027,7 +4045,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>58</v>
@@ -4045,10 +4063,10 @@
         <v>1025</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E34" s="3">
         <v>100</v>
@@ -4082,10 +4100,10 @@
         <v>2001</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E35" s="1">
         <v>100</v>
@@ -4097,13 +4115,13 @@
         <v>20</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="1" t="s">
@@ -4125,10 +4143,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4148,7 +4166,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4224,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -4236,13 +4254,13 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -4256,7 +4274,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
@@ -4265,30 +4283,30 @@
         <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
@@ -4297,7 +4315,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -4305,16 +4323,16 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1">
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1">
         <v>0.5</v>
@@ -4323,24 +4341,21 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J6" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>148</v>
-      </c>
+    <row r="7" s="1" customFormat="1" spans="2:10">
       <c r="B7" s="1">
-        <v>1006</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1">
         <v>0.5</v>
@@ -4349,21 +4364,21 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:9">
+        <v>146</v>
+      </c>
+      <c r="J7" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:10">
       <c r="B8" s="1">
-        <v>1008</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1">
         <v>0.5</v>
@@ -4372,21 +4387,24 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:9">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B9" s="1">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
@@ -4395,21 +4413,21 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I9" s="1">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1">
         <v>0.5</v>
@@ -4418,21 +4436,21 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I10" s="1">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1">
         <v>0.5</v>
@@ -4441,21 +4459,21 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I11" s="1">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:9">
       <c r="B12" s="1">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1">
         <v>0.5</v>
@@ -4464,9 +4482,55 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I12" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:9">
+      <c r="B13" s="1">
+        <v>1017</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:9">
+      <c r="B14" s="1">
+        <v>1018</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="1">
         <v>1018</v>
       </c>
     </row>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>ResAirShip</t>
   </si>
@@ -134,7 +134,7 @@
     <t>Prefab/Unit/AirShip_1</t>
   </si>
   <si>
-    <t>103</t>
+    <t>51</t>
   </si>
   <si>
     <t>1</t>
@@ -176,10 +176,10 @@
     <t>Config/AI/JoinSceneMove.bytes</t>
   </si>
   <si>
-    <t>1,101,102,103</t>
-  </si>
-  <si>
-    <t>50,50,100,100</t>
+    <t>1,101</t>
+  </si>
+  <si>
+    <t>100,50</t>
   </si>
   <si>
     <t>敌人1002</t>
@@ -215,57 +215,66 @@
     <t>999</t>
   </si>
   <si>
-    <t>1,101</t>
+    <t>敌人1006</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1006</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Config/AI/Template_Join_NoTarget_Attack_Leave.bytes</t>
+  </si>
+  <si>
+    <t>1006,104,106</t>
+  </si>
+  <si>
+    <t>50,50,50</t>
+  </si>
+  <si>
+    <t>敌人1007</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1007</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>敌人1008</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1008</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>1008,105,108,114</t>
+  </si>
+  <si>
+    <t>50,50,50,50</t>
+  </si>
+  <si>
+    <t>敌人1009</t>
+  </si>
+  <si>
+    <t>Prefab/Unit/AirShip_1009</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>109,110</t>
   </si>
   <si>
     <t>50,50</t>
   </si>
   <si>
-    <t>敌人1006</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1006</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Config/AI/Template_Join_NoTarget_Attack_Leave.bytes</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>敌人1007</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1007</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>敌人1008</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1008</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>敌人1009</t>
-  </si>
-  <si>
-    <t>Prefab/Unit/AirShip_1009</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>敌人1010</t>
   </si>
   <si>
@@ -284,7 +293,10 @@
     <t>117,1061,1062,1163,1164</t>
   </si>
   <si>
-    <t>1011</t>
+    <t>1011,102,111,114</t>
+  </si>
+  <si>
+    <t>50,30,50,50</t>
   </si>
   <si>
     <t>敌人1012</t>
@@ -296,7 +308,7 @@
     <t>112</t>
   </si>
   <si>
-    <t>1012</t>
+    <t>1012,103,112,114</t>
   </si>
   <si>
     <t>敌人1013</t>
@@ -305,12 +317,12 @@
     <t>Prefab/Unit/AirShip_1013</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>Config/AI/Template_Join_NoTarget_Attack.bytes</t>
   </si>
   <si>
+    <t>1,104,114</t>
+  </si>
+  <si>
     <t>敌人1014</t>
   </si>
   <si>
@@ -320,18 +332,27 @@
     <t>131</t>
   </si>
   <si>
+    <t>1,113</t>
+  </si>
+  <si>
     <t>敌人1015</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_1015</t>
   </si>
   <si>
+    <t>102,103</t>
+  </si>
+  <si>
     <t>敌人10151</t>
   </si>
   <si>
     <t>Prefab/Unit/AirShip_10151</t>
   </si>
   <si>
+    <t>1,102,103</t>
+  </si>
+  <si>
     <t>敌人10152</t>
   </si>
   <si>
@@ -359,7 +380,7 @@
     <t>Prefab/Unit/AirShip_1017</t>
   </si>
   <si>
-    <t>1017</t>
+    <t>1017,104,105</t>
   </si>
   <si>
     <t>敌人1018</t>
@@ -371,7 +392,7 @@
     <t>1091,1092,1093,1094</t>
   </si>
   <si>
-    <t>1018</t>
+    <t>1018,105,103</t>
   </si>
   <si>
     <t>敌人1021</t>
@@ -410,7 +431,7 @@
     <t>Prefab/Unit/Boss_2001</t>
   </si>
   <si>
-    <t>201</t>
+    <t>2011,2012,2013,2014</t>
   </si>
   <si>
     <t>Config/AI/Boss_2001.bytes</t>
@@ -461,7 +482,7 @@
     <t>101-1000技能</t>
   </si>
   <si>
-    <t>技能</t>
+    <t>创建并行子弹</t>
   </si>
   <si>
     <t>Prefab/Item/Item_101</t>
@@ -477,6 +498,72 @@
   </si>
   <si>
     <t>Prefab/Item/Item_103</t>
+  </si>
+  <si>
+    <t>创建可爆炸光球</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_104</t>
+  </si>
+  <si>
+    <t>创建一次性激光</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_105</t>
+  </si>
+  <si>
+    <t>子弹19</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_106</t>
+  </si>
+  <si>
+    <t>子弹23</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_107</t>
+  </si>
+  <si>
+    <t>子弹40</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_108</t>
+  </si>
+  <si>
+    <t>子弹25</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_109</t>
+  </si>
+  <si>
+    <t>子弹46</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_110</t>
+  </si>
+  <si>
+    <t>子弹49</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_111</t>
+  </si>
+  <si>
+    <t>子弹50</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_112</t>
+  </si>
+  <si>
+    <t>子弹51</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_113</t>
+  </si>
+  <si>
+    <t>侧翼导弹</t>
+  </si>
+  <si>
+    <t>Prefab/Item/Item_114</t>
   </si>
   <si>
     <t>1001以上，是飞船</t>
@@ -508,10 +595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -529,16 +616,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,15 +639,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,16 +670,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,17 +695,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,17 +717,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,7 +733,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,6 +741,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,43 +768,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +828,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +894,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,79 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,60 +959,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -948,7 +981,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,6 +1030,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -980,145 +1067,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2598,11 +2685,11 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2618,7 +2705,7 @@
     <col min="11" max="11" width="30" style="4" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.25" style="4" customWidth="1"/>
     <col min="15" max="15" width="18.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
@@ -2999,7 +3086,7 @@
         <v>54</v>
       </c>
       <c r="P9" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="39.95" customHeight="1" spans="2:16">
@@ -3046,7 +3133,7 @@
         <v>54</v>
       </c>
       <c r="P10" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="39.95" customHeight="1" spans="2:16">
@@ -3093,7 +3180,7 @@
         <v>54</v>
       </c>
       <c r="P11" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="39.95" customHeight="1" spans="2:16">
@@ -3134,13 +3221,13 @@
         <v>2</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P12" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="39.95" customHeight="1" spans="2:16">
@@ -3148,28 +3235,28 @@
         <v>1006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
         <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>58</v>
@@ -3181,13 +3268,13 @@
         <v>2</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="1">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="P13" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="39.95" customHeight="1" spans="2:16">
@@ -3195,28 +3282,28 @@
         <v>1007</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>58</v>
@@ -3228,13 +3315,13 @@
         <v>2</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="O14" s="1">
+        <v>50</v>
       </c>
       <c r="P14" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="39.95" customHeight="1" spans="2:16">
@@ -3251,7 +3338,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
         <v>20</v>
@@ -3277,11 +3364,11 @@
       <c r="N15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="1">
-        <v>50</v>
+      <c r="O15" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="P15" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="39.95" customHeight="1" spans="2:16">
@@ -3289,22 +3376,22 @@
         <v>1009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
         <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>40</v>
@@ -3322,13 +3409,13 @@
         <v>2</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P16" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="39.95" customHeight="1" spans="2:16">
@@ -3336,22 +3423,22 @@
         <v>1010</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1">
         <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>40</v>
@@ -3369,13 +3456,13 @@
         <v>2</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P17" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="39.95" customHeight="1" spans="2:16">
@@ -3383,28 +3470,28 @@
         <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1">
         <v>60</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1">
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>65</v>
@@ -3416,13 +3503,13 @@
         <v>2</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="1">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="P18" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="39.95" customHeight="1" spans="2:16">
@@ -3430,10 +3517,10 @@
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -3445,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>40</v>
@@ -3463,13 +3550,13 @@
         <v>2</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O19" s="1">
-        <v>50</v>
+        <v>97</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="P19" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="39.95" customHeight="1" spans="2:16">
@@ -3477,10 +3564,10 @@
         <v>1013</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
@@ -3492,13 +3579,13 @@
         <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>42</v>
@@ -3507,13 +3594,13 @@
         <v>2</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P20" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="39.95" customHeight="1" spans="2:16">
@@ -3521,28 +3608,28 @@
         <v>1014</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
         <v>25</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>42</v>
@@ -3551,13 +3638,13 @@
         <v>2</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P21" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="39.95" customHeight="1" spans="2:16">
@@ -3565,16 +3652,16 @@
         <v>1015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>20</v>
@@ -3592,13 +3679,13 @@
         <v>2</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="P22" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
@@ -3606,16 +3693,16 @@
         <v>10151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>20</v>
@@ -3635,13 +3722,13 @@
         <v>2</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P23" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
@@ -3649,16 +3736,16 @@
         <v>10152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E24" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>20</v>
@@ -3678,13 +3765,13 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P24" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
@@ -3692,16 +3779,16 @@
         <v>10153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E25" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>20</v>
@@ -3721,13 +3808,13 @@
         <v>2</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P25" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="39.95" customHeight="1" spans="2:16">
@@ -3735,16 +3822,16 @@
         <v>1016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>20</v>
@@ -3762,13 +3849,13 @@
         <v>2</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P26" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:16">
@@ -3776,16 +3863,16 @@
         <v>10161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>20</v>
@@ -3805,13 +3892,13 @@
         <v>2</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P27" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="39.95" customHeight="1" spans="2:16">
@@ -3819,16 +3906,16 @@
         <v>1017</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E28" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>40</v>
@@ -3846,13 +3933,13 @@
         <v>2</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O28" s="1">
+        <v>121</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="1">
         <v>50</v>
-      </c>
-      <c r="P28" s="1">
-        <v>100</v>
       </c>
     </row>
     <row r="29" ht="39.95" customHeight="1" spans="2:16">
@@ -3860,22 +3947,22 @@
         <v>1018</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1">
         <v>30</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1">
         <v>20</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>40</v>
@@ -3893,13 +3980,13 @@
         <v>2</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="1">
-        <v>50</v>
+        <v>125</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="P29" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="39.95" customHeight="1" spans="2:14">
@@ -3907,16 +3994,16 @@
         <v>1021</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E30" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G30" s="3">
         <v>20</v>
@@ -3928,7 +4015,7 @@
         <v>40</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>58</v>
@@ -3946,16 +4033,16 @@
         <v>1022</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E31" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G31" s="3">
         <v>20</v>
@@ -3967,7 +4054,7 @@
         <v>40</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>58</v>
@@ -3985,16 +4072,16 @@
         <v>1023</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F32" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G32" s="3">
         <v>20</v>
@@ -4006,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>58</v>
@@ -4024,16 +4111,16 @@
         <v>1024</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F33" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G33" s="3">
         <v>20</v>
@@ -4045,7 +4132,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>58</v>
@@ -4063,16 +4150,16 @@
         <v>1025</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E34" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F34" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3">
         <v>20</v>
@@ -4100,28 +4187,28 @@
         <v>2001</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E35" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F35" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <v>20</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="1" t="s">
@@ -4143,17 +4230,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
@@ -4166,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4242,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -4254,13 +4341,13 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -4274,7 +4361,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
@@ -4283,30 +4370,30 @@
         <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
@@ -4315,7 +4402,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -4323,16 +4410,16 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1">
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1">
         <v>0.5</v>
@@ -4341,10 +4428,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:10">
@@ -4352,10 +4439,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E7" s="1">
         <v>0.5</v>
@@ -4364,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J7" s="1">
         <v>52</v>
@@ -4375,10 +4462,10 @@
         <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1">
         <v>0.5</v>
@@ -4387,24 +4474,21 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J8" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>154</v>
-      </c>
+    <row r="9" s="1" customFormat="1" spans="2:10">
       <c r="B9" s="1">
-        <v>1006</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
@@ -4413,21 +4497,21 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:9">
+        <v>153</v>
+      </c>
+      <c r="J9" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:10">
       <c r="B10" s="1">
-        <v>1008</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1">
         <v>0.5</v>
@@ -4436,21 +4520,21 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:9">
+        <v>153</v>
+      </c>
+      <c r="J10" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:10">
       <c r="B11" s="1">
-        <v>1011</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1">
         <v>0.5</v>
@@ -4459,21 +4543,21 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:9">
+        <v>153</v>
+      </c>
+      <c r="J11" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:10">
       <c r="B12" s="1">
-        <v>1012</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1">
         <v>0.5</v>
@@ -4482,21 +4566,21 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:9">
+        <v>153</v>
+      </c>
+      <c r="J12" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:10">
       <c r="B13" s="1">
-        <v>1017</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E13" s="1">
         <v>0.5</v>
@@ -4505,21 +4589,21 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:9">
+        <v>153</v>
+      </c>
+      <c r="J13" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:10">
       <c r="B14" s="1">
-        <v>1018</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1">
         <v>0.5</v>
@@ -4528,9 +4612,265 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="1">
+        <v>153</v>
+      </c>
+      <c r="J14" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:10">
+      <c r="B15" s="1">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:10">
+      <c r="B16" s="1">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:10">
+      <c r="B17" s="1">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:10">
+      <c r="B18" s="1">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:11">
+      <c r="B19" s="1">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:9">
+      <c r="B21" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:9">
+      <c r="B22" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:9">
+      <c r="B23" s="1">
+        <v>1012</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:9">
+      <c r="B24" s="1">
+        <v>1017</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:9">
+      <c r="B25" s="1">
+        <v>1018</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="1">
         <v>1018</v>
       </c>
     </row>

--- a/Data/Excel/单位配置.xlsx
+++ b/Data/Excel/单位配置.xlsx
@@ -595,10 +595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -609,95 +609,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,7 +634,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,6 +649,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,6 +716,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -747,7 +747,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,13 +768,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +852,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,109 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,37 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,71 +959,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1054,6 +989,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1067,10 +1067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,133 +1079,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2685,11 +2685,11 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>138</v>
